--- a/Data_Sources/US_Aid/Codebooks/syria_foreign_assistance_datadict.xlsx
+++ b/Data_Sources/US_Aid/Codebooks/syria_foreign_assistance_datadict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marissamarinello/Desktop/THAs/Data_Sources/CodeBooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marissamarinello/Desktop/Final_Project/Data_Sources/US_Aid/Codebooks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BD3C2-51A9-4945-81EF-D3DF14A48942}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED0C4A5-C8E6-9C48-8CFF-4B12EAC2CFFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25500" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,11 +520,11 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -820,7 +820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="117" zoomScaleNormal="100" zoomScalePageLayoutView="117" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScale="117" zoomScaleNormal="100" zoomScalePageLayoutView="117" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -833,11 +833,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1163,7 +1163,7 @@
       <c r="B31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>66</v>
       </c>
     </row>
